--- a/Classi.xlsx
+++ b/Classi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latin\Documents\GitHub\teamPAPC-C3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61420EC7-4EF9-4AEC-B5B3-164B8CDF8F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C9790-5EB9-44D5-A065-59048CB0D94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B0C715AA-EFD2-4F25-BB5B-E43E42076390}"/>
   </bookViews>
@@ -91,8 +91,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,11 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADCD2E9-5288-4926-A04C-1A65C43AA628}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +480,7 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +489,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -480,19 +498,25 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -501,7 +525,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -510,43 +534,55 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -554,8 +590,9 @@
       <c r="C13" s="3">
         <v>44152</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -564,23 +601,32 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3">
+        <v>44153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
